--- a/operac-variables.xlsx
+++ b/operac-variables.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/ciortiz1_uc_cl/Documents/Investigación y proyectos/[COBA] Determinantes de la Cohesión Barrial/dse-cob-tesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/ciortiz1_uc_cl/Documents/Investigación y proyectos/[COBA] Cohesión Barrial/dse-cob-tesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{AE3C510C-7BAF-41EF-B6C5-949A98C5563A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{740DA874-2EAE-4284-9D5A-C1831FB4C3A8}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="13_ncr:1_{AE3C510C-7BAF-41EF-B6C5-949A98C5563A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87E60353-E748-4ECE-A196-D0D09DA7E018}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="propuesta-ieut" sheetId="12" r:id="rId1"/>
-    <sheet name="co-ba" sheetId="13" r:id="rId2"/>
+    <sheet name="propuesta-demosal" sheetId="15" r:id="rId2"/>
+    <sheet name="Hoja4" sheetId="17" r:id="rId3"/>
+    <sheet name="co-ba" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="112">
   <si>
     <t>Dimensión</t>
   </si>
@@ -341,6 +343,36 @@
   </si>
   <si>
     <t xml:space="preserve"> social</t>
+  </si>
+  <si>
+    <t>Índice de theil</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grado de acuerdo: Me siento integrado/a en este barrio</t>
+  </si>
+  <si>
+    <t>Afectiva</t>
+  </si>
+  <si>
+    <t>Indice de theil</t>
+  </si>
+  <si>
+    <t>Subjetiva</t>
+  </si>
+  <si>
+    <t>Objetiva</t>
+  </si>
+  <si>
+    <t>Seguridad barrial</t>
+  </si>
+  <si>
+    <t>Satisfacción barrial</t>
+  </si>
+  <si>
+    <t>Reputación barrial</t>
   </si>
 </sst>
 </file>
@@ -752,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -816,6 +848,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -831,58 +872,52 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1170,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E0AD90-AC84-4EEE-91C8-E57592F10B31}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:E30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1198,13 +1233,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1215,47 +1250,47 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A3" s="27"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="23"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
@@ -1264,8 +1299,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
-      <c r="B8" s="22"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="2" t="s">
         <v>50</v>
       </c>
@@ -1277,92 +1312,92 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="27"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="23"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A13" s="27"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="27"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="23"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="23"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1374,8 +1409,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A18" s="27"/>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1389,8 +1424,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A19" s="27"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
@@ -1402,10 +1437,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="30" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1419,8 +1454,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="5" t="s">
         <v>57</v>
       </c>
@@ -1432,8 +1467,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="5" t="s">
         <v>60</v>
       </c>
@@ -1445,8 +1480,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="5" t="s">
         <v>61</v>
       </c>
@@ -1458,8 +1493,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="5" t="s">
         <v>64</v>
       </c>
@@ -1471,8 +1506,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="30" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1486,8 +1521,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="5" t="s">
         <v>71</v>
       </c>
@@ -1499,8 +1534,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="5" t="s">
         <v>72</v>
       </c>
@@ -1512,8 +1547,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="5" t="s">
         <v>73</v>
       </c>
@@ -1525,33 +1560,33 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30" t="s">
         <v>76</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="23" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="29"/>
+      <c r="E30" s="23"/>
     </row>
     <row r="31" spans="1:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="A31" s="27"/>
-      <c r="B31" s="24" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="27" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -1562,9 +1597,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="A32" s="27"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="7" t="s">
         <v>82</v>
       </c>
@@ -1573,9 +1608,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A33" s="27"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="7" t="s">
         <v>83</v>
       </c>
@@ -1584,9 +1619,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A34" s="27"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="7" t="s">
         <v>84</v>
       </c>
@@ -1595,8 +1630,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A35" s="27"/>
-      <c r="B35" s="25"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="5" t="s">
         <v>85</v>
       </c>
@@ -1608,8 +1643,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A36" s="27"/>
-      <c r="B36" s="26"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="5" t="s">
         <v>87</v>
       </c>
@@ -1622,12 +1657,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
     <mergeCell ref="C31:C34"/>
     <mergeCell ref="A20:A36"/>
     <mergeCell ref="B31:B36"/>
@@ -1641,6 +1670,12 @@
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1648,11 +1683,173 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B80FD8-33EB-48D2-BD47-73C8750D8065}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="29"/>
+      <c r="B12" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D8B81E-35BA-46BE-8517-0A069689EC74}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3DF786-94B4-42D0-BA01-F27D0E2CA803}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1662,7 +1859,7 @@
     <col min="3" max="3" width="46.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1676,11 +1873,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -1690,45 +1887,48 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="B3" s="34"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="36"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="31"/>
-      <c r="B4" s="34"/>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="36"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="37"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
-      <c r="B5" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="36"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="31"/>
-      <c r="B6" s="34"/>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="36"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="37"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="31"/>
-      <c r="B7" s="35"/>
+      <c r="D6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="36"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="17" t="s">
         <v>28</v>
       </c>
@@ -1736,169 +1936,174 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="36"/>
       <c r="B8" s="19" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="32"/>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="42"/>
       <c r="B9" s="20" t="s">
         <v>92</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="37"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="40" t="s">
+      <c r="D9" s="32"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="31"/>
-      <c r="B11" s="34"/>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="36"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="37"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
-      <c r="B12" s="34"/>
+      <c r="D11" s="32"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="36"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="31"/>
-      <c r="B13" s="34"/>
+    <row r="13" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="36"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="37"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
-      <c r="B14" s="34"/>
+      <c r="D13" s="32"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="36"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="31"/>
-      <c r="B15" s="34"/>
+    <row r="15" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="36"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="37"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="31"/>
-      <c r="B16" s="34"/>
+      <c r="D15" s="32"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="36"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="31"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="37"/>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
+      <c r="D17" s="32"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="36"/>
       <c r="B18" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="32"/>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="42"/>
       <c r="B19" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="37"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="38" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="31" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="31"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="37"/>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="31"/>
+      <c r="D21" s="32"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="36"/>
       <c r="B22" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="41"/>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="37"/>
       <c r="B23" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
     </row>
     <row r="24" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
@@ -1912,11 +2117,6 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/operac-variables.xlsx
+++ b/operac-variables.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/ciortiz1_uc_cl/Documents/Investigación y proyectos/[COBA] Cohesión Barrial/dse-cob-tesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="13_ncr:1_{AE3C510C-7BAF-41EF-B6C5-949A98C5563A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87E60353-E748-4ECE-A196-D0D09DA7E018}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{AE3C510C-7BAF-41EF-B6C5-949A98C5563A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D58C76F-2FBE-4A75-B3A9-A884569C7757}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="propuesta-ieut" sheetId="12" r:id="rId1"/>
-    <sheet name="propuesta-demosal" sheetId="15" r:id="rId2"/>
-    <sheet name="Hoja4" sheetId="17" r:id="rId3"/>
-    <sheet name="co-ba" sheetId="13" r:id="rId4"/>
+    <sheet name="propuesta-demosal" sheetId="15" r:id="rId1"/>
+    <sheet name="propuesta-ieut" sheetId="12" r:id="rId2"/>
+    <sheet name="co-ba" sheetId="13" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -379,7 +378,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -850,29 +849,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -889,35 +906,17 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1202,20 +1201,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B80FD8-33EB-48D2-BD47-73C8750D8065}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.54296875" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28">
+      <c r="A6" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="25"/>
+      <c r="B12" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E0AD90-AC84-4EEE-91C8-E57592F10B31}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.54296875" defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="21.1796875" customWidth="1"/>
     <col min="4" max="4" width="29.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -1232,14 +1381,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:5" ht="28">
+      <c r="A2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1249,48 +1398,48 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+    <row r="3" spans="1:5" ht="28">
+      <c r="A3" s="26"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="26"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="26"/>
-    </row>
-    <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5" ht="28">
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="26"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="26"/>
-    </row>
-    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:5" ht="28">
+      <c r="A7" s="26"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
@@ -1298,9 +1447,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
+    <row r="8" spans="1:5" ht="42">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="2" t="s">
         <v>50</v>
       </c>
@@ -1311,93 +1460,93 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25" t="s">
+    <row r="9" spans="1:5" ht="28">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="28" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="26"/>
-    </row>
-    <row r="11" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:5" ht="28">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+    <row r="12" spans="1:5">
+      <c r="A12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="26"/>
-    </row>
-    <row r="13" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" spans="1:5" ht="28">
+      <c r="A13" s="26"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+    <row r="14" spans="1:5">
+      <c r="A14" s="26"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="26"/>
-    </row>
-    <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="1:5" ht="28">
+      <c r="A15" s="26"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="26"/>
-    </row>
-    <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="1:5" ht="28">
+      <c r="A17" s="26"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1408,9 +1557,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25" t="s">
+    <row r="18" spans="1:5" ht="28">
+      <c r="A18" s="26"/>
+      <c r="B18" s="28" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1423,9 +1572,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
+    <row r="19" spans="1:5" ht="28">
+      <c r="A19" s="26"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
@@ -1436,11 +1585,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A20" s="24" t="s">
+    <row r="20" spans="1:5" ht="28">
+      <c r="A20" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1453,9 +1602,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="24"/>
-      <c r="B21" s="30"/>
+    <row r="21" spans="1:5">
+      <c r="A21" s="26"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="5" t="s">
         <v>57</v>
       </c>
@@ -1466,9 +1615,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="24"/>
-      <c r="B22" s="30"/>
+    <row r="22" spans="1:5">
+      <c r="A22" s="26"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="5" t="s">
         <v>60</v>
       </c>
@@ -1479,9 +1628,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="A23" s="24"/>
-      <c r="B23" s="30"/>
+    <row r="23" spans="1:5" ht="42">
+      <c r="A23" s="26"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="5" t="s">
         <v>61</v>
       </c>
@@ -1492,9 +1641,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="A24" s="24"/>
-      <c r="B24" s="30"/>
+    <row r="24" spans="1:5" ht="42">
+      <c r="A24" s="26"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="5" t="s">
         <v>64</v>
       </c>
@@ -1505,9 +1654,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A25" s="24"/>
-      <c r="B25" s="30" t="s">
+    <row r="25" spans="1:5" ht="28">
+      <c r="A25" s="26"/>
+      <c r="B25" s="29" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1520,9 +1669,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="24"/>
-      <c r="B26" s="30"/>
+    <row r="26" spans="1:5">
+      <c r="A26" s="26"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="5" t="s">
         <v>71</v>
       </c>
@@ -1533,9 +1682,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="24"/>
-      <c r="B27" s="30"/>
+    <row r="27" spans="1:5">
+      <c r="A27" s="26"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="5" t="s">
         <v>72</v>
       </c>
@@ -1546,9 +1695,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A28" s="24"/>
-      <c r="B28" s="30"/>
+    <row r="28" spans="1:5" ht="28">
+      <c r="A28" s="26"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="5" t="s">
         <v>73</v>
       </c>
@@ -1559,34 +1708,34 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A29" s="24"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30" t="s">
+    <row r="29" spans="1:5" ht="28">
+      <c r="A29" s="26"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29" t="s">
         <v>76</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A30" s="24"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
+    <row r="30" spans="1:5" ht="28">
+      <c r="A30" s="26"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="23"/>
-    </row>
-    <row r="31" spans="1:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="A31" s="24"/>
-      <c r="B31" s="27" t="s">
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="1:5" ht="42">
+      <c r="A31" s="26"/>
+      <c r="B31" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -1596,10 +1745,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="A32" s="24"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
+    <row r="32" spans="1:5" ht="42">
+      <c r="A32" s="26"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="7" t="s">
         <v>82</v>
       </c>
@@ -1607,10 +1756,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A33" s="24"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+    <row r="33" spans="1:5" ht="28">
+      <c r="A33" s="26"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
       <c r="D33" s="7" t="s">
         <v>83</v>
       </c>
@@ -1618,10 +1767,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A34" s="24"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
+    <row r="34" spans="1:5" ht="28">
+      <c r="A34" s="26"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="7" t="s">
         <v>84</v>
       </c>
@@ -1629,9 +1778,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A35" s="24"/>
-      <c r="B35" s="28"/>
+    <row r="35" spans="1:5" ht="28">
+      <c r="A35" s="26"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="5" t="s">
         <v>85</v>
       </c>
@@ -1642,9 +1791,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A36" s="24"/>
-      <c r="B36" s="29"/>
+    <row r="36" spans="1:5" ht="28">
+      <c r="A36" s="26"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="5" t="s">
         <v>87</v>
       </c>
@@ -1657,6 +1806,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="C31:C34"/>
     <mergeCell ref="A20:A36"/>
     <mergeCell ref="B31:B36"/>
@@ -1673,159 +1825,6 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B80FD8-33EB-48D2-BD47-73C8750D8065}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28" x14ac:dyDescent="0.35">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28" x14ac:dyDescent="0.35">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="29"/>
-      <c r="B12" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1833,33 +1832,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D8B81E-35BA-46BE-8517-0A069689EC74}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3DF786-94B4-42D0-BA01-F27D0E2CA803}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="21.54296875" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" customWidth="1"/>
     <col min="3" max="3" width="46.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="29" thickTop="1" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1873,11 +1860,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:5" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="34" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -1887,48 +1874,48 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="36"/>
-      <c r="B3" s="43"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="32"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="36"/>
-      <c r="B4" s="43"/>
+    <row r="4" spans="1:5" ht="15" thickBot="1">
+      <c r="A4" s="32"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="38"/>
       <c r="E4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="36"/>
-      <c r="B5" s="43"/>
+    <row r="5" spans="1:5">
+      <c r="A5" s="32"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="36"/>
-      <c r="B6" s="43"/>
+    <row r="6" spans="1:5" ht="15" thickBot="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="32"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="36"/>
-      <c r="B7" s="39"/>
+      <c r="D6" s="38"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1">
+      <c r="A7" s="32"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="17" t="s">
         <v>28</v>
       </c>
@@ -1936,174 +1923,169 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="36"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="32"/>
       <c r="B8" s="19" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="42"/>
+    <row r="9" spans="1:5" ht="15" thickBot="1">
+      <c r="A9" s="33"/>
       <c r="B9" s="20" t="s">
         <v>92</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="32"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="35" t="s">
+      <c r="D9" s="38"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="43" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="36"/>
-      <c r="B11" s="43"/>
+    <row r="11" spans="1:5" ht="15" thickBot="1">
+      <c r="A11" s="32"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="32"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
-      <c r="B12" s="43"/>
+      <c r="D11" s="38"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="32"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="36"/>
-      <c r="B13" s="43"/>
+    <row r="13" spans="1:5" ht="15" thickBot="1">
+      <c r="A13" s="32"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="32"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="36"/>
-      <c r="B14" s="43"/>
+      <c r="D13" s="38"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="32"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="36"/>
-      <c r="B15" s="43"/>
+    <row r="15" spans="1:5" ht="15" thickBot="1">
+      <c r="A15" s="32"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="32"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="36"/>
-      <c r="B16" s="43"/>
+      <c r="D15" s="38"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="32"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="36"/>
-      <c r="B17" s="39"/>
+    <row r="17" spans="1:4" ht="15" thickBot="1">
+      <c r="A17" s="32"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="32"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="36"/>
+      <c r="D17" s="38"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="32"/>
       <c r="B18" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="42"/>
+    <row r="19" spans="1:4" ht="15" thickBot="1">
+      <c r="A19" s="33"/>
       <c r="B19" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="32"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="35" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="38"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="43" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="36"/>
-      <c r="B21" s="39"/>
+    <row r="21" spans="1:4" ht="15" thickBot="1">
+      <c r="A21" s="32"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="32"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="36"/>
+      <c r="D21" s="38"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="32"/>
       <c r="B22" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="37"/>
+    <row r="23" spans="1:4" ht="15" thickBot="1">
+      <c r="A23" s="42"/>
       <c r="B23" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D8:D9"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
@@ -2117,6 +2099,11 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/operac-variables.xlsx
+++ b/operac-variables.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/ciortiz1_uc_cl/Documents/Investigación y proyectos/[COBA] Cohesión Barrial/dse-cob-tesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="437" documentId="13_ncr:1_{AE3C510C-7BAF-41EF-B6C5-949A98C5563A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFE561FE-B56A-4D1D-A368-FBB4B6ED019B}"/>
+  <xr:revisionPtr revIDLastSave="561" documentId="13_ncr:1_{AE3C510C-7BAF-41EF-B6C5-949A98C5563A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9F4673B-F8BB-4DCB-B15D-A3F5C2E67AF1}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-20805" yWindow="2700" windowWidth="14400" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="propuesta-tesis" sheetId="15" r:id="rId1"/>
-    <sheet name="propuesta-ieut" sheetId="12" r:id="rId2"/>
+    <sheet name="propuesta-tesis (2)" sheetId="16" r:id="rId2"/>
+    <sheet name="propuesta-ieut" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="160">
   <si>
     <t>Dimensión</t>
   </si>
@@ -334,9 +335,6 @@
     <t>Frecuencia:  Visito la casa de vecino</t>
   </si>
   <si>
-    <t xml:space="preserve">Diversidad de las zonas censales por diversidad de la ciudad </t>
-  </si>
-  <si>
     <t>Social</t>
   </si>
   <si>
@@ -482,13 +480,49 @@
   </si>
   <si>
     <t>m34_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grado de homogeneidad de las zonas censales en comparacion a (dividido por) la homogeneidad de la ciudad </t>
+  </si>
+  <si>
+    <t>Grado de vitalidad urbana de la zonas censales a partir de: 1. concentración de personas y densidad de vivienda; 2. diversidad de usos; 3. edificios antiguos; 4. oportunidad de contacto; 5. accesibilidad a servicios</t>
+  </si>
+  <si>
+    <t>1 a 5</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t>0 a 1</t>
+  </si>
+  <si>
+    <t>18 a 75</t>
+  </si>
+  <si>
+    <t>1 a 10</t>
+  </si>
+  <si>
+    <t>1 a 75</t>
+  </si>
+  <si>
+    <t>Reputación percibida</t>
+  </si>
+  <si>
+    <t>Índice de Jane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Theil </t>
+  </si>
+  <si>
+    <t>Desigualdad socioespacial (percibida + observada)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,16 +554,46 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Sans serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -633,11 +697,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -664,6 +838,188 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -676,9 +1032,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -687,70 +1040,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1038,11 +1327,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B80FD8-33EB-48D2-BD47-73C8750D8065}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.54296875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.36328125" customWidth="1"/>
     <col min="2" max="2" width="12.36328125" customWidth="1"/>
@@ -1053,169 +1342,169 @@
     <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="14" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="G1" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="45" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="47"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="47"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="47"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
-      <c r="B6" s="18" t="s">
+      <c r="G5" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="47"/>
+      <c r="B6" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="46" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+        <v>110</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="3" t="s">
         <v>90</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+        <v>111</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="3" t="s">
         <v>92</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
-      <c r="B10" s="14" t="s">
+      <c r="G9" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A10" s="47"/>
+      <c r="B10" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="45" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1225,16 +1514,16 @@
         <v>97</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+        <v>104</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="48"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="2" t="s">
         <v>49</v>
       </c>
@@ -1242,286 +1531,288 @@
         <v>98</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16" customHeight="1">
+      <c r="A12" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="46" t="s">
         <v>88</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="G12" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="47"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="G13" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="47"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
+      <c r="G14" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="47"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28" x14ac:dyDescent="0.35">
-      <c r="A16" s="19"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="19"/>
+      <c r="G15" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28">
+      <c r="A16" s="47"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="20"/>
+      <c r="G16" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28" customHeight="1">
+      <c r="A17" s="47"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="19"/>
-      <c r="B18" s="30" t="s">
-        <v>100</v>
+      <c r="G17" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="33.5" customHeight="1">
+      <c r="A18" s="47"/>
+      <c r="B18" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="28" x14ac:dyDescent="0.35">
-      <c r="A19" s="20"/>
-      <c r="B19" s="30" t="s">
-        <v>101</v>
+        <v>148</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="44" customHeight="1">
+      <c r="A19" s="48"/>
+      <c r="B19" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24" t="s">
+      <c r="D19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="46" customHeight="1">
+      <c r="A20" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="14" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="E21" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="35" t="s">
+      <c r="D22" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E22" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F22" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G21" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="36" t="s">
+      <c r="G22" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D24" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="38" t="s">
+      <c r="E24" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F24" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="G23" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="35" t="s">
+      <c r="G24" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E25" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F25" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="G24" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>124</v>
+      <c r="G25" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A19"/>
     <mergeCell ref="C12:C17"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="B12:B17"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C2:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1529,20 +1820,388 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A161E1E-14B3-4F89-9289-76BF1DB5F9D2}">
+  <dimension ref="B1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.54296875" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="3.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" customWidth="1"/>
+    <col min="6" max="6" width="68.6328125" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" thickBot="1"/>
+    <row r="2" spans="2:7" ht="15" thickBot="1">
+      <c r="B2" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="70"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="70"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="70"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="70"/>
+      <c r="C7" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="70"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="70"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="70"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="16" customHeight="1">
+      <c r="B11" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="56"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="56"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="56"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="28" customHeight="1">
+      <c r="B15" s="56"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="28" customHeight="1">
+      <c r="B16" s="56"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="33.5" customHeight="1">
+      <c r="B17" s="56"/>
+      <c r="C17" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="44" customHeight="1">
+      <c r="B18" s="57"/>
+      <c r="C18" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="46" customHeight="1">
+      <c r="B19" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="64"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="14.5" customHeight="1">
+      <c r="B21" s="64"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="14.5" customHeight="1" thickBot="1">
+      <c r="B22" s="65"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15" thickBot="1">
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D20:D21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E0AD90-AC84-4EEE-91C8-E57592F10B31}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.54296875" defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="21.1796875" customWidth="1"/>
     <col min="4" max="4" width="29.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
@@ -1559,14 +2218,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:5" ht="28">
+      <c r="A2" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="45" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1576,48 +2235,48 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+    <row r="3" spans="1:5" ht="28">
+      <c r="A3" s="77"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="78" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="77"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="E4" s="78"/>
+    </row>
+    <row r="5" spans="1:5" ht="28">
+      <c r="A5" s="77"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="78" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="77"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="E6" s="78"/>
+    </row>
+    <row r="7" spans="1:5" ht="28">
+      <c r="A7" s="77"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1625,9 +2284,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
+    <row r="8" spans="1:5" ht="42">
+      <c r="A8" s="77"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1638,93 +2297,93 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
+    <row r="9" spans="1:5" ht="28">
+      <c r="A9" s="77"/>
+      <c r="B9" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="45" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="78" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="77"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="E10" s="78"/>
+    </row>
+    <row r="11" spans="1:5" ht="28">
+      <c r="A11" s="77"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="78" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+    <row r="12" spans="1:5">
+      <c r="A12" s="77"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="E12" s="78"/>
+    </row>
+    <row r="13" spans="1:5" ht="28">
+      <c r="A13" s="77"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="78" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+    <row r="14" spans="1:5">
+      <c r="A14" s="77"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="E14" s="78"/>
+    </row>
+    <row r="15" spans="1:5" ht="28">
+      <c r="A15" s="77"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="78" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="77"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
+      <c r="E16" s="78"/>
+    </row>
+    <row r="17" spans="1:5" ht="28">
+      <c r="A17" s="77"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1735,9 +2394,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14" t="s">
+    <row r="18" spans="1:5" ht="28">
+      <c r="A18" s="77"/>
+      <c r="B18" s="45" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1750,9 +2409,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
+    <row r="19" spans="1:5" ht="28">
+      <c r="A19" s="77"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="2" t="s">
         <v>49</v>
       </c>
@@ -1763,11 +2422,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:5" ht="28">
+      <c r="A20" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="79" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1780,9 +2439,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
-      <c r="B21" s="16"/>
+    <row r="21" spans="1:5">
+      <c r="A21" s="77"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="5" t="s">
         <v>53</v>
       </c>
@@ -1793,9 +2452,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
-      <c r="B22" s="16"/>
+    <row r="22" spans="1:5">
+      <c r="A22" s="77"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="5" t="s">
         <v>56</v>
       </c>
@@ -1806,9 +2465,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="A23" s="13"/>
-      <c r="B23" s="16"/>
+    <row r="23" spans="1:5" ht="42">
+      <c r="A23" s="77"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="5" t="s">
         <v>57</v>
       </c>
@@ -1819,9 +2478,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="A24" s="13"/>
-      <c r="B24" s="16"/>
+    <row r="24" spans="1:5" ht="42">
+      <c r="A24" s="77"/>
+      <c r="B24" s="79"/>
       <c r="C24" s="5" t="s">
         <v>60</v>
       </c>
@@ -1832,9 +2491,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
-      <c r="B25" s="16" t="s">
+    <row r="25" spans="1:5" ht="28">
+      <c r="A25" s="77"/>
+      <c r="B25" s="79" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1847,9 +2506,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="13"/>
-      <c r="B26" s="16"/>
+    <row r="26" spans="1:5">
+      <c r="A26" s="77"/>
+      <c r="B26" s="79"/>
       <c r="C26" s="5" t="s">
         <v>67</v>
       </c>
@@ -1860,9 +2519,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="13"/>
-      <c r="B27" s="16"/>
+    <row r="27" spans="1:5">
+      <c r="A27" s="77"/>
+      <c r="B27" s="79"/>
       <c r="C27" s="5" t="s">
         <v>68</v>
       </c>
@@ -1873,9 +2532,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
-      <c r="B28" s="16"/>
+    <row r="28" spans="1:5" ht="28">
+      <c r="A28" s="77"/>
+      <c r="B28" s="79"/>
       <c r="C28" s="5" t="s">
         <v>69</v>
       </c>
@@ -1886,34 +2545,34 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A29" s="13"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16" t="s">
+    <row r="29" spans="1:5" ht="28">
+      <c r="A29" s="77"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79" t="s">
         <v>72</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="80" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A30" s="13"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
+    <row r="30" spans="1:5" ht="28">
+      <c r="A30" s="77"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="17"/>
-    </row>
-    <row r="31" spans="1:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="A31" s="13"/>
-      <c r="B31" s="10" t="s">
+      <c r="E30" s="80"/>
+    </row>
+    <row r="31" spans="1:5" ht="42">
+      <c r="A31" s="77"/>
+      <c r="B31" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="74" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -1923,10 +2582,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="A32" s="13"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+    <row r="32" spans="1:5" ht="42">
+      <c r="A32" s="77"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="7" t="s">
         <v>78</v>
       </c>
@@ -1934,10 +2593,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A33" s="13"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+    <row r="33" spans="1:5" ht="28">
+      <c r="A33" s="77"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="7" t="s">
         <v>79</v>
       </c>
@@ -1945,10 +2604,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A34" s="13"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
+    <row r="34" spans="1:5" ht="28">
+      <c r="A34" s="77"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="7" t="s">
         <v>80</v>
       </c>
@@ -1956,9 +2615,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="11"/>
+    <row r="35" spans="1:5" ht="28">
+      <c r="A35" s="77"/>
+      <c r="B35" s="75"/>
       <c r="C35" s="5" t="s">
         <v>81</v>
       </c>
@@ -1969,9 +2628,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="28" x14ac:dyDescent="0.35">
-      <c r="A36" s="13"/>
-      <c r="B36" s="12"/>
+    <row r="36" spans="1:5" ht="28">
+      <c r="A36" s="77"/>
+      <c r="B36" s="76"/>
       <c r="C36" s="5" t="s">
         <v>83</v>
       </c>
@@ -1984,9 +2643,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B2:B8"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E5:E6"/>
@@ -2003,6 +2659,9 @@
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B2:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/operac-variables.xlsx
+++ b/operac-variables.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/ciortiz1_uc_cl/Documents/Investigación y proyectos/[COBA] Cohesión Barrial/dse-cob-tesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="561" documentId="13_ncr:1_{AE3C510C-7BAF-41EF-B6C5-949A98C5563A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9F4673B-F8BB-4DCB-B15D-A3F5C2E67AF1}"/>
+  <xr:revisionPtr revIDLastSave="683" documentId="13_ncr:1_{AE3C510C-7BAF-41EF-B6C5-949A98C5563A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3745707F-337A-42BA-AA28-751DA35014F8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="propuesta-tesis" sheetId="15" r:id="rId1"/>
-    <sheet name="propuesta-tesis (2)" sheetId="16" r:id="rId2"/>
+    <sheet name="tesis-corta" sheetId="15" r:id="rId1"/>
+    <sheet name="presentaciones" sheetId="16" r:id="rId2"/>
     <sheet name="propuesta-ieut" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="154">
   <si>
     <t>Dimensión</t>
   </si>
@@ -320,21 +320,12 @@
     <t>Relacional</t>
   </si>
   <si>
-    <t>Práctica</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
     <t>Sentimiento de seguridad</t>
   </si>
   <si>
-    <t>Membresía: Junta de vecinos u otra organización  vecinal</t>
-  </si>
-  <si>
-    <t>Frecuencia:  Visito la casa de vecino</t>
-  </si>
-  <si>
     <t>Social</t>
   </si>
   <si>
@@ -350,12 +341,6 @@
     <t>Experiencial</t>
   </si>
   <si>
-    <t>c12_01</t>
-  </si>
-  <si>
-    <t>c07_01</t>
-  </si>
-  <si>
     <t>t02_02</t>
   </si>
   <si>
@@ -425,27 +410,15 @@
     <t>Nivel educacional</t>
   </si>
   <si>
-    <t>Régimen de tenencia</t>
-  </si>
-  <si>
     <t>Tiempo de residencia</t>
   </si>
   <si>
-    <t>Género</t>
-  </si>
-  <si>
-    <t>¿Cuál es su sexo?</t>
-  </si>
-  <si>
     <t>¿Cuál es su fecha de nacimiento?</t>
   </si>
   <si>
     <t>¿Cuál es su nivel educacional? Indique el tipo de estudio actual (si estudia actualmente) o el último tipo aprobado (si no estudia actualmente).</t>
   </si>
   <si>
-    <t>m0_sexo</t>
-  </si>
-  <si>
     <t>m0_edad</t>
   </si>
   <si>
@@ -467,18 +440,12 @@
     <t>En una escala de 0 a 10, donde 0 es el nivel más bajo y 10 el nivel más alto,  ¿Dónde se ubicaría usted en la sociedad chilena?</t>
   </si>
   <si>
-    <t>La casa/departamento donde vive actualmente es…</t>
-  </si>
-  <si>
     <t>Hace cuántos años vive usted en este barrio</t>
   </si>
   <si>
     <t>d01_01</t>
   </si>
   <si>
-    <t>m33</t>
-  </si>
-  <si>
     <t>m34_03</t>
   </si>
   <si>
@@ -516,13 +483,28 @@
   </si>
   <si>
     <t>Desigualdad socioespacial (percibida + observada)</t>
+  </si>
+  <si>
+    <t>Simbólica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuál es su nivel educacional? </t>
+  </si>
+  <si>
+    <t>Grado de satisfacción con proximidad al lugar donde trabaja</t>
+  </si>
+  <si>
+    <t>Subjetiva/ Experiencial</t>
+  </si>
+  <si>
+    <t>Percibida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,6 +548,30 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -593,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -807,11 +813,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -838,43 +873,6 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -936,25 +934,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -997,27 +995,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1032,14 +1012,98 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1056,10 +1120,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1325,494 +1385,414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B80FD8-33EB-48D2-BD47-73C8750D8065}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.54296875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" customWidth="1"/>
-    <col min="5" max="5" width="65.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="52.453125" customWidth="1"/>
     <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="63"/>
+      <c r="B6" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" customHeight="1">
+      <c r="A10" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="E14" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28" customHeight="1">
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="33.5" customHeight="1">
+      <c r="A16" s="63"/>
+      <c r="B16" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="44" customHeight="1">
+      <c r="A17" s="68"/>
+      <c r="B17" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="71" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="34.5" customHeight="1">
+      <c r="A18" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="B18" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.5" customHeight="1">
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="84" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="47"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="47"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="47"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="47"/>
-      <c r="B6" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="3" t="s">
+      <c r="E19" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="48"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16" customHeight="1">
-      <c r="A12" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="47"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="47"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="47"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28">
-      <c r="A16" s="47"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="33.5" customHeight="1">
-      <c r="A18" s="47"/>
-      <c r="B18" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="11" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="28" customHeight="1">
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="22" customHeight="1">
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="87" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="44" customHeight="1">
-      <c r="A19" s="48"/>
-      <c r="B19" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="46" customHeight="1">
-      <c r="A20" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>123</v>
+      <c r="G21" s="71" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="14">
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
     <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D10:D13"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D9"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="B10:B15"/>
     <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C2:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1823,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A161E1E-14B3-4F89-9289-76BF1DB5F9D2}">
   <dimension ref="B1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C39" sqref="C38:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.54296875" defaultRowHeight="14.5"/>
@@ -1835,344 +1815,337 @@
     <col min="4" max="4" width="13.36328125" customWidth="1"/>
     <col min="5" max="5" width="23.81640625" customWidth="1"/>
     <col min="6" max="6" width="68.6328125" customWidth="1"/>
-    <col min="7" max="7" width="7.7265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1"/>
     <row r="2" spans="2:7" ht="15" thickBot="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="34"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="34"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="34"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="34"/>
+      <c r="C7" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="34"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="34"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="34"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="16" customHeight="1">
+      <c r="B11" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="43"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="43"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="43"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="28" customHeight="1">
+      <c r="B15" s="43"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="38" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="70"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="70"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="70"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="70"/>
-      <c r="C7" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="70"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="70"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="70"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="16" customHeight="1">
-      <c r="B11" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="56"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="56"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="56"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="28" customHeight="1">
-      <c r="B15" s="56"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="28" t="s">
+      <c r="F15" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="28" customHeight="1">
+      <c r="B16" s="43"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="33.5" customHeight="1">
+      <c r="B17" s="43"/>
+      <c r="C17" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="28" customHeight="1">
-      <c r="B16" s="56"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="33.5" customHeight="1">
-      <c r="B17" s="56"/>
-      <c r="C17" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>152</v>
+      <c r="E17" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="44" customHeight="1">
-      <c r="B18" s="57"/>
-      <c r="C18" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="28" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>152</v>
+      <c r="E18" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="46" customHeight="1">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="G19" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="51"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="34" t="s">
+      <c r="G20" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="14.5" customHeight="1">
+      <c r="B21" s="51"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="G19" s="25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="64"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="68" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="34" t="s">
+      <c r="G21" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="14.5" customHeight="1" thickBot="1">
+      <c r="B22" s="52"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B21" s="64"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="14.5" customHeight="1" thickBot="1">
-      <c r="B22" s="65"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="41" t="s">
+      <c r="G22" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="42" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="23" spans="2:7" ht="15" thickBot="1">
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="C11:C16"/>
@@ -2181,6 +2154,13 @@
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2191,7 +2171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E0AD90-AC84-4EEE-91C8-E57592F10B31}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18:E19"/>
     </sheetView>
   </sheetViews>
@@ -2219,13 +2199,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="28">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="32" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2236,47 +2216,47 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="28">
-      <c r="A3" s="77"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="77"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="78"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" ht="28">
-      <c r="A5" s="77"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="54" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="77"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="78"/>
+      <c r="E6" s="54"/>
     </row>
     <row r="7" spans="1:5" ht="28">
-      <c r="A7" s="77"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
@@ -2285,8 +2265,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="42">
-      <c r="A8" s="77"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
@@ -2298,92 +2278,92 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="28">
-      <c r="A9" s="77"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="58"/>
+      <c r="B9" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="32" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="54" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="77"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="78"/>
+      <c r="E10" s="54"/>
     </row>
     <row r="11" spans="1:5" ht="28">
-      <c r="A11" s="77"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="54" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="77"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="78"/>
+      <c r="E12" s="54"/>
     </row>
     <row r="13" spans="1:5" ht="28">
-      <c r="A13" s="77"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="78" t="s">
+      <c r="E13" s="54" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="77"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="78"/>
+      <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="28">
-      <c r="A15" s="77"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="78" t="s">
+      <c r="E15" s="54" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="77"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="78"/>
+      <c r="E16" s="54"/>
     </row>
     <row r="17" spans="1:5" ht="28">
-      <c r="A17" s="77"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
@@ -2395,8 +2375,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="28">
-      <c r="A18" s="77"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="58"/>
+      <c r="B18" s="32" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2410,8 +2390,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="28">
-      <c r="A19" s="77"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="2" t="s">
         <v>49</v>
       </c>
@@ -2423,10 +2403,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="28">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="59" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -2440,8 +2420,8 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="77"/>
-      <c r="B21" s="79"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="5" t="s">
         <v>53</v>
       </c>
@@ -2453,8 +2433,8 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="77"/>
-      <c r="B22" s="79"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="5" t="s">
         <v>56</v>
       </c>
@@ -2466,8 +2446,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="42">
-      <c r="A23" s="77"/>
-      <c r="B23" s="79"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="5" t="s">
         <v>57</v>
       </c>
@@ -2479,8 +2459,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="42">
-      <c r="A24" s="77"/>
-      <c r="B24" s="79"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="5" t="s">
         <v>60</v>
       </c>
@@ -2492,8 +2472,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="28">
-      <c r="A25" s="77"/>
-      <c r="B25" s="79" t="s">
+      <c r="A25" s="58"/>
+      <c r="B25" s="59" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -2507,8 +2487,8 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="77"/>
-      <c r="B26" s="79"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="5" t="s">
         <v>67</v>
       </c>
@@ -2520,8 +2500,8 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="77"/>
-      <c r="B27" s="79"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="5" t="s">
         <v>68</v>
       </c>
@@ -2533,8 +2513,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="28">
-      <c r="A28" s="77"/>
-      <c r="B28" s="79"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="5" t="s">
         <v>69</v>
       </c>
@@ -2546,33 +2526,33 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="28">
-      <c r="A29" s="77"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79" t="s">
+      <c r="A29" s="58"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59" t="s">
         <v>72</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="80" t="s">
+      <c r="E29" s="60" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="28">
-      <c r="A30" s="77"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="80"/>
+      <c r="E30" s="60"/>
     </row>
     <row r="31" spans="1:5" ht="42">
-      <c r="A31" s="77"/>
-      <c r="B31" s="74" t="s">
+      <c r="A31" s="58"/>
+      <c r="B31" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="55" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -2583,9 +2563,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="42">
-      <c r="A32" s="77"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
       <c r="D32" s="7" t="s">
         <v>78</v>
       </c>
@@ -2594,9 +2574,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="28">
-      <c r="A33" s="77"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="7" t="s">
         <v>79</v>
       </c>
@@ -2605,9 +2585,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="28">
-      <c r="A34" s="77"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="76"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="7" t="s">
         <v>80</v>
       </c>
@@ -2616,8 +2596,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="28">
-      <c r="A35" s="77"/>
-      <c r="B35" s="75"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="5" t="s">
         <v>81</v>
       </c>
@@ -2629,8 +2609,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="28">
-      <c r="A36" s="77"/>
-      <c r="B36" s="76"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="5" t="s">
         <v>83</v>
       </c>
@@ -2643,6 +2623,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B2:B8"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E5:E6"/>
@@ -2659,9 +2642,6 @@
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B2:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/operac-variables.xlsx
+++ b/operac-variables.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/ciortiz1_uc_cl/Documents/Investigación y proyectos/[COBA] Cohesión Barrial/dse-cob-tesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="683" documentId="13_ncr:1_{AE3C510C-7BAF-41EF-B6C5-949A98C5563A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3745707F-337A-42BA-AA28-751DA35014F8}"/>
+  <xr:revisionPtr revIDLastSave="712" documentId="13_ncr:1_{AE3C510C-7BAF-41EF-B6C5-949A98C5563A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A96BD80-95A6-46FF-9F02-BFAA7D71F165}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tesis-corta" sheetId="15" r:id="rId1"/>
-    <sheet name="presentaciones" sheetId="16" r:id="rId2"/>
-    <sheet name="propuesta-ieut" sheetId="12" r:id="rId3"/>
+    <sheet name="tesis-corta (2)" sheetId="17" r:id="rId2"/>
+    <sheet name="presentaciones" sheetId="16" r:id="rId3"/>
+    <sheet name="propuesta-ieut" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="154">
   <si>
     <t>Dimensión</t>
   </si>
@@ -494,17 +495,17 @@
     <t>Grado de satisfacción con proximidad al lugar donde trabaja</t>
   </si>
   <si>
-    <t>Subjetiva/ Experiencial</t>
-  </si>
-  <si>
     <t>Percibida</t>
+  </si>
+  <si>
+    <t>Desigualdad experiencial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +573,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -846,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -931,28 +938,85 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -995,7 +1059,37 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1010,100 +1104,43 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1120,6 +1157,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1387,13 +1428,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B80FD8-33EB-48D2-BD47-73C8750D8065}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F21"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.54296875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
     <col min="2" max="2" width="11.6328125" customWidth="1"/>
     <col min="3" max="3" width="12.90625" customWidth="1"/>
     <col min="4" max="4" width="18.1796875" customWidth="1"/>
@@ -1403,396 +1444,399 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="37" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="65" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="37" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="65" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="37" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="65" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="37" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="37" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="65" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="37" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="65" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="37" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69" t="s">
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="41" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" customHeight="1">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="98"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="98"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="98"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1">
+      <c r="A14" s="98"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28" customHeight="1">
+      <c r="A15" s="99"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="33.5" customHeight="1">
+      <c r="A16" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="72" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="74" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="67" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="67" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="67" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="67" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28" customHeight="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="67" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="33.5" customHeight="1">
-      <c r="A16" s="63"/>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="77" t="s">
+      <c r="D16" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="76" t="s">
+      <c r="F16" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="67" t="s">
+      <c r="G16" s="37" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="44" customHeight="1">
-      <c r="A17" s="68"/>
-      <c r="B17" s="79" t="s">
+      <c r="A17" s="89"/>
+      <c r="B17" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="D17" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="80" t="s">
+      <c r="E17" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="81" t="s">
+      <c r="F17" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="71" t="s">
+      <c r="G17" s="41" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="73" t="s">
+      <c r="F18" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="74" t="s">
+      <c r="G18" s="44" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="84" t="s">
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="85" t="s">
+      <c r="E19" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="F19" s="76" t="s">
+      <c r="F19" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="67" t="s">
+      <c r="G19" s="37" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="28" customHeight="1">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="84" t="s">
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="86" t="s">
+      <c r="E20" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="76" t="s">
+      <c r="F20" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="67" t="s">
+      <c r="G20" s="37" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="22" customHeight="1">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="87" t="s">
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="88" t="s">
+      <c r="E21" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="89" t="s">
+      <c r="F21" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="G21" s="71" t="s">
+      <c r="G21" s="41" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1800,6 +1844,385 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C316E68E-3519-4876-BDB0-3F6D2EA06D66}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.54296875" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="52.453125" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="56"/>
+      <c r="B6" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" customHeight="1">
+      <c r="A10" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="98"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="98"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="98"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1">
+      <c r="A14" s="98"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28" customHeight="1">
+      <c r="A15" s="99"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="33.5" customHeight="1">
+      <c r="A16" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="44" customHeight="1">
+      <c r="A17" s="89"/>
+      <c r="B17" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="34.5" customHeight="1">
+      <c r="A18" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.5" customHeight="1">
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28" customHeight="1">
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="22" customHeight="1">
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A161E1E-14B3-4F89-9289-76BF1DB5F9D2}">
   <dimension ref="B1:G23"/>
   <sheetViews>
@@ -1841,16 +2264,16 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="77" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="30" t="s">
@@ -1861,10 +2284,10 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="34"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="11" t="s">
         <v>110</v>
       </c>
@@ -1873,10 +2296,10 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="34"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
       <c r="F5" s="11" t="s">
         <v>111</v>
       </c>
@@ -1885,10 +2308,10 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="34"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="11" t="s">
         <v>112</v>
       </c>
@@ -1897,14 +2320,14 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="34"/>
-      <c r="C7" s="37" t="s">
+      <c r="B7" s="76"/>
+      <c r="C7" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="73" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="11" t="s">
@@ -1915,10 +2338,10 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="34"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="11" t="s">
         <v>90</v>
       </c>
@@ -1927,10 +2350,10 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="34"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
       <c r="F9" s="11" t="s">
         <v>92</v>
       </c>
@@ -1939,10 +2362,10 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="34"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
       <c r="F10" s="11" t="s">
         <v>113</v>
       </c>
@@ -1951,16 +2374,16 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="16" customHeight="1">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="67" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -1971,10 +2394,10 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="43"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="13" t="s">
         <v>78</v>
       </c>
@@ -1983,10 +2406,10 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="43"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="13" t="s">
         <v>79</v>
       </c>
@@ -1995,10 +2418,10 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="43"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
       <c r="F14" s="13" t="s">
         <v>80</v>
       </c>
@@ -2007,9 +2430,9 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="28" customHeight="1">
-      <c r="B15" s="43"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="49"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="15" t="s">
         <v>95</v>
       </c>
@@ -2021,9 +2444,9 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="28" customHeight="1">
-      <c r="B16" s="43"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="50"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="69"/>
       <c r="E16" s="15" t="s">
         <v>145</v>
       </c>
@@ -2035,7 +2458,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="33.5" customHeight="1">
-      <c r="B17" s="43"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="16" t="s">
         <v>96</v>
       </c>
@@ -2053,7 +2476,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="44" customHeight="1">
-      <c r="B18" s="44"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="16" t="s">
         <v>97</v>
       </c>
@@ -2071,10 +2494,10 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="46" customHeight="1">
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="72" t="s">
         <v>121</v>
       </c>
       <c r="D19" s="19" t="s">
@@ -2091,9 +2514,9 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="51"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="53" t="s">
+      <c r="B20" s="70"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="74" t="s">
         <v>131</v>
       </c>
       <c r="E20" s="20" t="s">
@@ -2107,9 +2530,9 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B21" s="51"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="53"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="74"/>
       <c r="E21" s="20" t="s">
         <v>129</v>
       </c>
@@ -2121,8 +2544,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="14.5" customHeight="1" thickBot="1">
-      <c r="B22" s="52"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="26" t="s">
         <v>132</v>
       </c>
@@ -2137,15 +2560,22 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="15" thickBot="1">
-      <c r="B23" s="40"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="C11:C16"/>
@@ -2154,20 +2584,13 @@
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E0AD90-AC84-4EEE-91C8-E57592F10B31}">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -2199,13 +2622,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="28">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="82" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2216,47 +2639,47 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="28">
-      <c r="A3" s="58"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
       <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="83" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="58"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
       <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="83"/>
     </row>
     <row r="5" spans="1:5" ht="28">
-      <c r="A5" s="58"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="83" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="58"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="54"/>
+      <c r="E6" s="83"/>
     </row>
     <row r="7" spans="1:5" ht="28">
-      <c r="A7" s="58"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
@@ -2265,8 +2688,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="42">
-      <c r="A8" s="58"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
@@ -2278,92 +2701,92 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="28">
-      <c r="A9" s="58"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="81"/>
+      <c r="B9" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="82" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="83" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="58"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="54"/>
+      <c r="E10" s="83"/>
     </row>
     <row r="11" spans="1:5" ht="28">
-      <c r="A11" s="58"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="83" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="58"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="54"/>
+      <c r="E12" s="83"/>
     </row>
     <row r="13" spans="1:5" ht="28">
-      <c r="A13" s="58"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="83" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="58"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="54"/>
+      <c r="E14" s="83"/>
     </row>
     <row r="15" spans="1:5" ht="28">
-      <c r="A15" s="58"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="83" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="58"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="54"/>
+      <c r="E16" s="83"/>
     </row>
     <row r="17" spans="1:5" ht="28">
-      <c r="A17" s="58"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
@@ -2375,8 +2798,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="28">
-      <c r="A18" s="58"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="81"/>
+      <c r="B18" s="82" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2390,8 +2813,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="28">
-      <c r="A19" s="58"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="2" t="s">
         <v>49</v>
       </c>
@@ -2403,10 +2826,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="28">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -2420,8 +2843,8 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="87"/>
       <c r="C21" s="5" t="s">
         <v>53</v>
       </c>
@@ -2433,8 +2856,8 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="87"/>
       <c r="C22" s="5" t="s">
         <v>56</v>
       </c>
@@ -2446,8 +2869,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="42">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="5" t="s">
         <v>57</v>
       </c>
@@ -2459,8 +2882,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="42">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="5" t="s">
         <v>60</v>
       </c>
@@ -2472,8 +2895,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="28">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59" t="s">
+      <c r="A25" s="81"/>
+      <c r="B25" s="87" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -2487,8 +2910,8 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="58"/>
-      <c r="B26" s="59"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="5" t="s">
         <v>67</v>
       </c>
@@ -2500,8 +2923,8 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="58"/>
-      <c r="B27" s="59"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="5" t="s">
         <v>68</v>
       </c>
@@ -2513,8 +2936,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="28">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="5" t="s">
         <v>69</v>
       </c>
@@ -2526,33 +2949,33 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="28">
-      <c r="A29" s="58"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59" t="s">
+      <c r="A29" s="81"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87" t="s">
         <v>72</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="80" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="28">
-      <c r="A30" s="58"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
       <c r="D30" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="60"/>
+      <c r="E30" s="80"/>
     </row>
     <row r="31" spans="1:5" ht="42">
-      <c r="A31" s="58"/>
-      <c r="B31" s="55" t="s">
+      <c r="A31" s="81"/>
+      <c r="B31" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="84" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -2563,9 +2986,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="42">
-      <c r="A32" s="58"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="7" t="s">
         <v>78</v>
       </c>
@@ -2574,9 +2997,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="28">
-      <c r="A33" s="58"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="7" t="s">
         <v>79</v>
       </c>
@@ -2585,9 +3008,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="28">
-      <c r="A34" s="58"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="86"/>
       <c r="D34" s="7" t="s">
         <v>80</v>
       </c>
@@ -2596,8 +3019,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="28">
-      <c r="A35" s="58"/>
-      <c r="B35" s="56"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="5" t="s">
         <v>81</v>
       </c>
@@ -2609,8 +3032,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="28">
-      <c r="A36" s="58"/>
-      <c r="B36" s="57"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="5" t="s">
         <v>83</v>
       </c>
@@ -2623,12 +3046,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
     <mergeCell ref="C31:C34"/>
     <mergeCell ref="A20:A36"/>
     <mergeCell ref="B31:B36"/>
@@ -2642,6 +3059,12 @@
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/operac-variables.xlsx
+++ b/operac-variables.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\OneDrive - Universidad Católica de Chile\Investigación y proyectos\[COBA] Cohesión Barrial\dse-cob-tesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/ciortiz1_uc_cl/Documents/Investigación y proyectos/[COBA] Cohesión Barrial/dse-cob-tesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8476CEC7-4E12-4D77-81A7-F5967152B982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -999,6 +999,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1008,182 +1089,101 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1577,16 +1577,16 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="67" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -1600,10 +1600,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="13" t="s">
         <v>108</v>
       </c>
@@ -1615,10 +1615,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="13" t="s">
         <v>109</v>
       </c>
@@ -1630,10 +1630,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="13" t="s">
         <v>110</v>
       </c>
@@ -1645,14 +1645,14 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="67"/>
+      <c r="B6" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="67" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="13" t="s">
@@ -1666,10 +1666,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="13" t="s">
         <v>89</v>
       </c>
@@ -1681,10 +1681,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="13" t="s">
         <v>91</v>
       </c>
@@ -1696,10 +1696,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="17" t="s">
         <v>111</v>
       </c>
@@ -1711,16 +1711,16 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="66" t="s">
         <v>87</v>
       </c>
       <c r="E10" s="20" t="s">
@@ -1734,10 +1734,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="45"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="34" t="s">
         <v>78</v>
       </c>
@@ -1749,10 +1749,10 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="45"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="34" t="s">
         <v>79</v>
       </c>
@@ -1764,10 +1764,10 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="45"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="34" t="s">
         <v>80</v>
       </c>
@@ -1779,9 +1779,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1">
-      <c r="A14" s="45"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="12" t="s">
         <v>94</v>
       </c>
@@ -1796,9 +1796,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="28" customHeight="1">
-      <c r="A15" s="46"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="16" t="s">
         <v>88</v>
       </c>
@@ -1813,7 +1813,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="33.5" customHeight="1">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="72" t="s">
         <v>84</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -1836,7 +1836,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="44" customHeight="1">
-      <c r="A17" s="43"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="16" t="s">
         <v>96</v>
       </c>
@@ -1857,13 +1857,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="66" t="s">
         <v>119</v>
       </c>
       <c r="D18" s="26" t="s">
@@ -1880,9 +1880,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="28" t="s">
         <v>121</v>
       </c>
@@ -1897,9 +1897,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="28" customHeight="1">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="28" t="s">
         <v>126</v>
       </c>
@@ -1914,9 +1914,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="22" customHeight="1">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="31" t="s">
         <v>122</v>
       </c>
@@ -1932,6 +1932,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="D2:D5"/>
@@ -1942,11 +1947,6 @@
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1992,13 +1992,13 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="67" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -2012,9 +2012,9 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="13" t="s">
         <v>108</v>
       </c>
@@ -2026,9 +2026,9 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="13" t="s">
         <v>109</v>
       </c>
@@ -2040,9 +2040,9 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="13" t="s">
         <v>110</v>
       </c>
@@ -2054,11 +2054,11 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="67"/>
+      <c r="B6" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="67" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -2072,9 +2072,9 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="13" t="s">
         <v>89</v>
       </c>
@@ -2086,9 +2086,9 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="13" t="s">
         <v>91</v>
       </c>
@@ -2100,9 +2100,9 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="17" t="s">
         <v>111</v>
       </c>
@@ -2114,13 +2114,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="66" t="s">
         <v>87</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -2134,9 +2134,9 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="45"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="34" t="s">
         <v>78</v>
       </c>
@@ -2148,9 +2148,9 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="45"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="34" t="s">
         <v>79</v>
       </c>
@@ -2162,9 +2162,9 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="45"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="34" t="s">
         <v>80</v>
       </c>
@@ -2176,8 +2176,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1">
-      <c r="A14" s="45"/>
-      <c r="B14" s="40"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="12" t="s">
         <v>94</v>
       </c>
@@ -2192,8 +2192,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="28" customHeight="1">
-      <c r="A15" s="46"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="16" t="s">
         <v>88</v>
       </c>
@@ -2208,7 +2208,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="33.5" customHeight="1">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="72" t="s">
         <v>84</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -2228,7 +2228,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="44" customHeight="1">
-      <c r="A17" s="43"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="16" t="s">
         <v>63</v>
       </c>
@@ -2246,10 +2246,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="66" t="s">
         <v>119</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -2266,8 +2266,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.5" customHeight="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="28" t="s">
         <v>121</v>
       </c>
@@ -2282,8 +2282,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="28" customHeight="1">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="28" t="s">
         <v>126</v>
       </c>
@@ -2298,8 +2298,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="22" customHeight="1">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="31" t="s">
         <v>122</v>
       </c>
@@ -2315,17 +2315,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2337,216 +2337,216 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.08984375" defaultRowHeight="28" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" style="99"/>
+    <col min="1" max="1" width="19.08984375" style="64"/>
     <col min="2" max="2" width="28.6328125" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="96.26953125" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" style="100" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" style="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28" customHeight="1" thickBot="1">
-      <c r="A1" s="57" t="e" vm="1">
+      <c r="A1" s="39" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="54" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="55" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28" customHeight="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="61" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="56" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28" customHeight="1">
-      <c r="A4" s="60"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="61" t="s">
+      <c r="A4" s="75"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="56" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28" customHeight="1" thickBot="1">
-      <c r="A5" s="60"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="62" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="57" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28" customHeight="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="82" t="s">
+      <c r="A6" s="75"/>
+      <c r="B6" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="56" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28" customHeight="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="61" t="s">
+      <c r="A7" s="75"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="56" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28" customHeight="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="61" t="s">
+      <c r="A8" s="75"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="56" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28" customHeight="1" thickBot="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="61" t="s">
+      <c r="A9" s="76"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="56" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28" customHeight="1">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="58" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28" customHeight="1">
-      <c r="A11" s="66"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="67" t="s">
+      <c r="A11" s="87"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="91" t="s">
+      <c r="D11" s="59" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28" customHeight="1">
-      <c r="A12" s="66"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="67" t="s">
+      <c r="A12" s="87"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="91" t="s">
+      <c r="D12" s="59" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="22" thickBot="1">
-      <c r="A13" s="66"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="68" t="s">
+      <c r="A13" s="87"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="60" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="43.5" thickBot="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="69" t="s">
+      <c r="A14" s="87"/>
+      <c r="B14" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="93" t="s">
+      <c r="D14" s="61" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40" customHeight="1" thickBot="1">
-      <c r="A15" s="71"/>
-      <c r="B15" s="72" t="s">
+      <c r="A15" s="88"/>
+      <c r="B15" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="D15" s="59" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="57" customHeight="1" thickBot="1">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="94" t="s">
+      <c r="D16" s="62" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="77" customHeight="1" thickBot="1">
-      <c r="A17" s="78"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="90"/>
+      <c r="B17" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="95" t="s">
+      <c r="D17" s="63" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28" customHeight="1" thickBot="1">
-      <c r="A18" s="96"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="98"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2595,13 +2595,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="28">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="95" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2612,47 +2612,47 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="28">
-      <c r="A3" s="49"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="98" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="49"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="47"/>
+      <c r="E4" s="98"/>
     </row>
     <row r="5" spans="1:5" ht="28">
-      <c r="A5" s="49"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
+      <c r="A5" s="93"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
       <c r="D5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="98" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="49"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="47"/>
+      <c r="E6" s="98"/>
     </row>
     <row r="7" spans="1:5" ht="28">
-      <c r="A7" s="49"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="56"/>
+      <c r="A7" s="93"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
@@ -2661,8 +2661,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="42">
-      <c r="A8" s="49"/>
-      <c r="B8" s="56"/>
+      <c r="A8" s="93"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
@@ -2674,92 +2674,92 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="28">
-      <c r="A9" s="49"/>
-      <c r="B9" s="54" t="s">
+      <c r="A9" s="93"/>
+      <c r="B9" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="95" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="98" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="49"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="47"/>
+      <c r="E10" s="98"/>
     </row>
     <row r="11" spans="1:5" ht="28">
-      <c r="A11" s="49"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
       <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="98" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="49"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
+      <c r="A12" s="93"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="47"/>
+      <c r="E12" s="98"/>
     </row>
     <row r="13" spans="1:5" ht="28">
-      <c r="A13" s="49"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="98" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="49"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
+      <c r="A14" s="93"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="47"/>
+      <c r="E14" s="98"/>
     </row>
     <row r="15" spans="1:5" ht="28">
-      <c r="A15" s="49"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="98" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="49"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="47"/>
+      <c r="E16" s="98"/>
     </row>
     <row r="17" spans="1:5" ht="28">
-      <c r="A17" s="49"/>
-      <c r="B17" s="56"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
@@ -2771,8 +2771,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="28">
-      <c r="A18" s="49"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="93"/>
+      <c r="B18" s="95" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2786,8 +2786,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="28">
-      <c r="A19" s="50"/>
-      <c r="B19" s="56"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="97"/>
       <c r="C19" s="2" t="s">
         <v>49</v>
       </c>
@@ -2799,10 +2799,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="28">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="100" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -2816,8 +2816,8 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="5" t="s">
         <v>53</v>
       </c>
@@ -2829,8 +2829,8 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="5" t="s">
         <v>56</v>
       </c>
@@ -2842,8 +2842,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="42">
-      <c r="A23" s="51"/>
-      <c r="B23" s="52"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="5" t="s">
         <v>57</v>
       </c>
@@ -2855,8 +2855,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="42">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="100"/>
       <c r="C24" s="5" t="s">
         <v>60</v>
       </c>
@@ -2868,8 +2868,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="28">
-      <c r="A25" s="51"/>
-      <c r="B25" s="52" t="s">
+      <c r="A25" s="99"/>
+      <c r="B25" s="100" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -2883,8 +2883,8 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="100"/>
       <c r="C26" s="5" t="s">
         <v>67</v>
       </c>
@@ -2896,8 +2896,8 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="51"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="99"/>
+      <c r="B27" s="100"/>
       <c r="C27" s="5" t="s">
         <v>68</v>
       </c>
@@ -2909,8 +2909,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="28">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="100"/>
       <c r="C28" s="5" t="s">
         <v>69</v>
       </c>
@@ -2922,33 +2922,33 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="28">
-      <c r="A29" s="51"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52" t="s">
+      <c r="A29" s="99"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="100" t="s">
         <v>72</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="91" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="28">
-      <c r="A30" s="51"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
       <c r="D30" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="53"/>
+      <c r="E30" s="91"/>
     </row>
     <row r="31" spans="1:5" ht="42">
-      <c r="A31" s="51"/>
-      <c r="B31" s="48" t="s">
+      <c r="A31" s="99"/>
+      <c r="B31" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="92" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -2959,9 +2959,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="42">
-      <c r="A32" s="51"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
+      <c r="A32" s="99"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
       <c r="D32" s="7" t="s">
         <v>78</v>
       </c>
@@ -2970,9 +2970,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="28">
-      <c r="A33" s="51"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
+      <c r="A33" s="99"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
       <c r="D33" s="7" t="s">
         <v>79</v>
       </c>
@@ -2981,9 +2981,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="28">
-      <c r="A34" s="51"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="50"/>
+      <c r="A34" s="99"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="94"/>
       <c r="D34" s="7" t="s">
         <v>80</v>
       </c>
@@ -2992,8 +2992,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="28">
-      <c r="A35" s="51"/>
-      <c r="B35" s="49"/>
+      <c r="A35" s="99"/>
+      <c r="B35" s="93"/>
       <c r="C35" s="5" t="s">
         <v>81</v>
       </c>
@@ -3005,8 +3005,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="28">
-      <c r="A36" s="51"/>
-      <c r="B36" s="50"/>
+      <c r="A36" s="99"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="5" t="s">
         <v>83</v>
       </c>
@@ -3019,12 +3019,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
     <mergeCell ref="C31:C34"/>
     <mergeCell ref="A20:A36"/>
     <mergeCell ref="B31:B36"/>
@@ -3038,6 +3032,12 @@
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
